--- a/G116_NEXT漢育児/G116_NEXT漢育児_部品表.xlsx
+++ b/G116_NEXT漢育児/G116_NEXT漢育児_部品表.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelve\OneDrive\Desktop\ETrobocon\第1版\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB38005-73EC-428A-98B5-206C2A447849}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="部品表" sheetId="1" r:id="rId1"/>
     <sheet name="部品表について" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -502,7 +513,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
@@ -733,7 +744,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,18 +1780,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1798,7 +1809,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
@@ -1818,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -1883,7 +1894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -1916,7 +1927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1949,7 +1960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1969,7 +1980,6 @@
         <v>35</v>
       </c>
       <c r="G9" s="8">
-        <f>K9*111.82</f>
         <v>11739.9818</v>
       </c>
       <c r="H9" s="5">
@@ -1982,11 +1992,8 @@
       <c r="J9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="1">
-        <v>104.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -2019,7 +2026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -2052,7 +2059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -2072,7 +2079,6 @@
         <v>45</v>
       </c>
       <c r="G12" s="8">
-        <f>K12/4</f>
         <v>420</v>
       </c>
       <c r="H12" s="5">
@@ -2085,11 +2091,8 @@
       <c r="J12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="1">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -2142,7 +2145,6 @@
         <v>49</v>
       </c>
       <c r="G14" s="8">
-        <f>K14/5</f>
         <v>432</v>
       </c>
       <c r="H14" s="5">
@@ -2155,11 +2157,8 @@
       <c r="J14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="1">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>8</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>9</v>
       </c>
@@ -2223,7 +2222,7 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>10</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>11</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>12</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>13</v>
       </c>
@@ -2353,7 +2352,7 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>14</v>
       </c>
@@ -2373,7 +2372,6 @@
         <v>67</v>
       </c>
       <c r="G21" s="8">
-        <f>K21/625</f>
         <v>23.327999999999999</v>
       </c>
       <c r="H21" s="5">
@@ -2386,16 +2384,13 @@
       <c r="J21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="1">
-        <v>14580</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>76</v>
@@ -2422,11 +2417,8 @@
       <c r="J22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="1">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>16</v>
       </c>
@@ -2443,7 +2435,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>17</v>
       </c>
@@ -2460,7 +2452,7 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>18</v>
       </c>
@@ -2477,7 +2469,7 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>19</v>
       </c>
@@ -2494,7 +2486,7 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>20</v>
       </c>
@@ -2511,7 +2503,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>21</v>
       </c>
@@ -2528,7 +2520,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>22</v>
       </c>
@@ -2545,7 +2537,7 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>23</v>
       </c>
@@ -2562,7 +2554,7 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>24</v>
       </c>
@@ -2579,7 +2571,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>25</v>
       </c>
@@ -3692,7 +3684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3963,16 +3955,16 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7A1EF40-461C-444D-9936-E30A1FCB3A46}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="fda46163-3ca3-4d3b-832e-0bfdaf5ecc91"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="34e0f20b-56ed-4547-86a0-f4ff3dfa3eda"/>
+    <ds:schemaRef ds:uri="FDA46163-3CA3-4D3B-832E-0BFDAF5ECC91"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="34e0f20b-56ed-4547-86a0-f4ff3dfa3eda"/>
-    <ds:schemaRef ds:uri="FDA46163-3CA3-4D3B-832E-0BFDAF5ECC91"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
